--- a/experiment/nonconvex/MitsosBarton2006Ex323/compare/Alpha-Zero/MitsosBarton2006Ex323_Alpha-Zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/compare/Alpha-Zero/MitsosBarton2006Ex323_Alpha-Zero.xlsx
@@ -473,13 +473,13 @@
         <v>17.532997280332925</v>
       </c>
       <c r="E2">
-        <v>0.017559</v>
+        <v>0.0268481</v>
       </c>
       <c r="F2">
-        <v>0.0343557</v>
+        <v>0.3111955</v>
       </c>
       <c r="G2">
-        <v>0.019725171936758896</v>
+        <v>0.045412499090909095</v>
       </c>
       <c r="H2">
         <v>4847</v>
